--- a/com.EcommerceAutomation/TestData/Ecoomerce.xlsx
+++ b/com.EcommerceAutomation/TestData/Ecoomerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/108bd3f84984957c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{4E98B2B3-AD11-426B-A65D-14B66B089EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB002F55-7C73-4610-B522-111235DF3F6F}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{4E98B2B3-AD11-426B-A65D-14B66B089EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79BC9DA7-D2FA-4614-92AA-FF4E1E4CC9E7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E5A69DA2-426A-4382-9653-E5FC898C726F}"/>
   </bookViews>
@@ -42,28 +42,28 @@
     <t>confirm password</t>
   </si>
   <si>
-    <t>Gill</t>
-  </si>
-  <si>
-    <t>Shubhman</t>
-  </si>
-  <si>
-    <t>Shubhman14@gmail.com</t>
-  </si>
-  <si>
-    <t>Shubhman45#</t>
-  </si>
-  <si>
-    <t>Dinesh</t>
-  </si>
-  <si>
-    <t>Kartik</t>
-  </si>
-  <si>
-    <t>Dinesh18@gmail.com</t>
-  </si>
-  <si>
-    <t>Dinesh18#</t>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Rana14@gmail.com</t>
+  </si>
+  <si>
+    <t>Rana45#</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Pratap</t>
+  </si>
+  <si>
+    <t>Ram18@gmail.com</t>
+  </si>
+  <si>
+    <t>Ram18#</t>
   </si>
 </sst>
 </file>
@@ -142,6 +142,10 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -445,7 +449,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,10 +479,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>

--- a/com.EcommerceAutomation/TestData/Ecoomerce.xlsx
+++ b/com.EcommerceAutomation/TestData/Ecoomerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/108bd3f84984957c/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{4E98B2B3-AD11-426B-A65D-14B66B089EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79BC9DA7-D2FA-4614-92AA-FF4E1E4CC9E7}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{4E98B2B3-AD11-426B-A65D-14B66B089EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096C9C7E-09E2-4B33-98B7-ED485D979DD9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E5A69DA2-426A-4382-9653-E5FC898C726F}"/>
   </bookViews>
@@ -42,28 +42,28 @@
     <t>confirm password</t>
   </si>
   <si>
-    <t>Rana</t>
-  </si>
-  <si>
-    <t>Anil</t>
-  </si>
-  <si>
-    <t>Rana14@gmail.com</t>
-  </si>
-  <si>
-    <t>Rana45#</t>
-  </si>
-  <si>
-    <t>Ram</t>
-  </si>
-  <si>
-    <t>Pratap</t>
-  </si>
-  <si>
-    <t>Ram18@gmail.com</t>
-  </si>
-  <si>
-    <t>Ram18#</t>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>jadeja</t>
+  </si>
+  <si>
+    <t>Ravindra05@gmail.com</t>
+  </si>
+  <si>
+    <t>Ravindra05#</t>
+  </si>
+  <si>
+    <t>Mohammad</t>
+  </si>
+  <si>
+    <t>Siraj</t>
+  </si>
+  <si>
+    <t>Mohammad89@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad10#</t>
   </si>
 </sst>
 </file>
@@ -146,6 +146,10 @@
 </file>
 
 <file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -449,14 +453,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
